--- a/2020-07-15/web_tables/mae_gdp_wide.xlsx
+++ b/2020-07-15/web_tables/mae_gdp_wide.xlsx
@@ -391,16 +391,16 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.008800000000000001</v>
+        <v>0.008200000000000001</v>
       </c>
       <c r="C2">
-        <v>0.0108</v>
+        <v>0.01</v>
       </c>
       <c r="D2">
-        <v>0.0083</v>
+        <v>0.0067</v>
       </c>
       <c r="E2">
-        <v>0.008500000000000001</v>
+        <v>0.0068</v>
       </c>
     </row>
     <row r="3">
@@ -410,16 +410,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.0108</v>
+        <v>0.009900000000000001</v>
       </c>
       <c r="C3">
-        <v>0.009599999999999999</v>
+        <v>0.0121</v>
       </c>
       <c r="D3">
-        <v>0.0104</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="E3">
-        <v>0.0105</v>
+        <v>0.0102</v>
       </c>
     </row>
     <row r="4">
@@ -429,16 +429,16 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.009599999999999999</v>
+        <v>0.0106</v>
       </c>
       <c r="C4">
-        <v>0.0094</v>
+        <v>0.0115</v>
       </c>
       <c r="D4">
-        <v>0.0127</v>
+        <v>0.0125</v>
       </c>
       <c r="E4">
-        <v>0.014</v>
+        <v>0.0144</v>
       </c>
     </row>
     <row r="5">
@@ -448,16 +448,16 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.0097</v>
+        <v>0.008699999999999999</v>
       </c>
       <c r="C5">
-        <v>0.009299999999999999</v>
+        <v>0.0065</v>
       </c>
       <c r="D5">
-        <v>0.0132</v>
+        <v>0.0109</v>
       </c>
       <c r="E5">
-        <v>0.0117</v>
+        <v>0.0107</v>
       </c>
     </row>
   </sheetData>
